--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/207377.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/207377.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,25 +2905,25 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>1</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3419,25 +3419,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3467,16 +3467,16 @@
         <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3685,19 +3685,19 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
         <v>0</v>
@@ -3854,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -3945,31 +3945,31 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3981,40 +3981,40 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4048,13 +4048,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,19 +4078,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="n">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4175,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -4190,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4205,31 +4205,31 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4241,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4435,22 +4435,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4465,19 +4465,19 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4501,22 +4501,22 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,22 +4595,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="2" t="n">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4701,43 +4701,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4761,13 +4761,13 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4828,22 +4828,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4858,19 +4858,19 @@
         <v>1</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -4900,16 +4900,16 @@
         <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4955,22 +4955,22 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -4985,19 +4985,19 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -5006,13 +5006,13 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -5027,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5088,22 +5088,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -5115,22 +5115,22 @@
         <v>0</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>1</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2" t="n">
         <v>0</v>
@@ -5160,16 +5160,16 @@
         <v>1</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="2" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5215,25 +5215,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5245,19 +5245,19 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -5269,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5348,22 +5348,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -5378,19 +5378,19 @@
         <v>2</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
@@ -5402,34 +5402,34 @@
         <v>1</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="2" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5475,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5505,19 +5505,19 @@
         <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5529,43 +5529,43 @@
         <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
         <v>2</v>
       </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1</v>
-      </c>
       <c r="AB39" t="n">
         <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39" t="n">
         <v>1</v>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5608,22 +5608,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5635,61 +5635,61 @@
         <v>0</v>
       </c>
       <c r="N40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="2" t="n">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="2" t="n">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5735,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -5762,70 +5762,70 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
         <v>2</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1</v>
-      </c>
       <c r="AB41" t="n">
         <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
         <v>1</v>
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5868,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -5895,61 +5895,61 @@
         <v>0</v>
       </c>
       <c r="N42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5995,13 +5995,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -6022,58 +6022,58 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
         <v>2</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1</v>
-      </c>
       <c r="AB43" t="n">
         <v>1</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6128,22 +6128,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1</v>
@@ -6155,61 +6155,61 @@
         <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>1</v>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6249,19 +6249,19 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -6282,58 +6282,58 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="n">
         <v>2</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
       <c r="AB45" t="n">
         <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
         <v>1</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6388,22 +6388,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6418,22 +6418,22 @@
         <v>3</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="2" t="n">
         <v>1</v>
@@ -6442,34 +6442,34 @@
         <v>1</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6509,19 +6509,19 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6545,22 +6545,22 @@
         <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
@@ -6569,31 +6569,31 @@
         <v>1</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
         <v>3</v>
       </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
       <c r="AB47" t="n">
         <v>1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6648,22 +6648,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6678,22 +6678,22 @@
         <v>3</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="2" t="n">
         <v>1</v>
@@ -6702,34 +6702,34 @@
         <v>1</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>1</v>
@@ -6769,28 +6769,28 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6805,22 +6805,22 @@
         <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
         <v>1</v>
@@ -6829,28 +6829,28 @@
         <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
         <v>3</v>
       </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1</v>
-      </c>
       <c r="AB49" t="n">
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="AH49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
         <v>1</v>
@@ -6908,22 +6908,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6932,28 +6932,28 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="n">
         <v>1</v>
@@ -6962,34 +6962,34 @@
         <v>1</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>1</v>
@@ -7029,28 +7029,28 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7059,28 +7059,28 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>1</v>
@@ -7089,28 +7089,28 @@
         <v>1</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
         <v>3</v>
       </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1</v>
-      </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="AH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
         <v>1</v>
@@ -7174,16 +7174,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7192,28 +7192,28 @@
         <v>0</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
         <v>1</v>
@@ -7222,34 +7222,34 @@
         <v>1</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>1</v>
@@ -7289,7 +7289,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -7298,19 +7298,19 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -7319,28 +7319,28 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>3</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>1</v>
@@ -7349,28 +7349,28 @@
         <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
         <v>3</v>
       </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1</v>
-      </c>
       <c r="AB53" t="n">
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="AH53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" t="n">
         <v>1</v>
@@ -7434,16 +7434,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7452,28 +7452,28 @@
         <v>1</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="2" t="n">
         <v>1</v>
@@ -7482,34 +7482,34 @@
         <v>1</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>1</v>
@@ -7549,7 +7549,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -7558,19 +7558,19 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7579,28 +7579,28 @@
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>1</v>
@@ -7609,28 +7609,28 @@
         <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="n">
         <v>3</v>
       </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="AH55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>1</v>
@@ -7694,16 +7694,16 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7712,13 +7712,13 @@
         <v>1</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>1</v>
@@ -7730,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2" t="n">
         <v>1</v>
@@ -7742,34 +7742,34 @@
         <v>1</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>1</v>
@@ -7809,7 +7809,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -7818,19 +7818,19 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7839,13 +7839,13 @@
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -7857,10 +7857,10 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>1</v>
@@ -7869,28 +7869,28 @@
         <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="n">
         <v>3</v>
       </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="AH57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" t="n">
         <v>1</v>
@@ -7954,16 +7954,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7972,13 +7972,13 @@
         <v>2</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>1</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2" t="n">
         <v>1</v>
@@ -8002,34 +8002,34 @@
         <v>1</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>1</v>
@@ -8069,7 +8069,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -8078,19 +8078,19 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -8099,13 +8099,13 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>3</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
         <v>1</v>
@@ -8129,28 +8129,28 @@
         <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="n">
         <v>3</v>
       </c>
-      <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1</v>
-      </c>
       <c r="AB59" t="n">
         <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="AH59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
         <v>1</v>
@@ -8214,16 +8214,16 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8232,28 +8232,28 @@
         <v>2</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="2" t="n">
         <v>1</v>
@@ -8262,34 +8262,34 @@
         <v>1</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>1</v>
@@ -8329,7 +8329,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -8338,19 +8338,19 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -8359,28 +8359,28 @@
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
         <v>1</v>
@@ -8389,28 +8389,28 @@
         <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" t="n">
         <v>3</v>
       </c>
-      <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>1</v>
-      </c>
       <c r="AB61" t="n">
         <v>1</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="AH61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
         <v>1</v>
@@ -8474,16 +8474,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8492,28 +8492,28 @@
         <v>3</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
         <v>1</v>
@@ -8522,34 +8522,34 @@
         <v>1</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>1</v>
@@ -8589,7 +8589,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -8598,19 +8598,19 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8619,28 +8619,28 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
         <v>1</v>
@@ -8649,28 +8649,28 @@
         <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" t="n">
         <v>3</v>
       </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1</v>
-      </c>
       <c r="AB63" t="n">
         <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="AH63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
         <v>1</v>
@@ -8734,16 +8734,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8752,19 +8752,19 @@
         <v>3</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
         <v>1</v>
@@ -8782,34 +8782,34 @@
         <v>1</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="2" t="n">
         <v>1</v>
@@ -8849,7 +8849,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -8861,37 +8861,37 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>3</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>1</v>
@@ -8909,31 +8909,31 @@
         <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="n">
         <v>3</v>
       </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>1</v>
-      </c>
       <c r="AB65" t="n">
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2" t="n">
         <v>3</v>
@@ -9021,10 +9021,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
         <v>1</v>
@@ -9042,34 +9042,34 @@
         <v>1</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="2" t="n">
         <v>1</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
         <v>3</v>
@@ -9148,10 +9148,10 @@
         <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
         <v>1</v>
@@ -9169,25 +9169,25 @@
         <v>1</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="n">
         <v>3</v>
       </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>1</v>
-      </c>
       <c r="AB67" t="n">
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
         <v>1</v>
@@ -9196,13 +9196,13 @@
         <v>1</v>
       </c>
       <c r="AF67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="n">
         <v>1</v>
       </c>
       <c r="AH67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI67" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="2" t="n">
         <v>3</v>
@@ -9281,19 +9281,19 @@
         <v>1</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="2" t="n">
         <v>1</v>
@@ -9302,20 +9302,20 @@
         <v>1</v>
       </c>
       <c r="W68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB68" s="2" t="n">
         <v>1</v>
       </c>
@@ -9323,13 +9323,13 @@
         <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="2" t="n">
         <v>1</v>
@@ -9378,10 +9378,10 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -9390,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -9399,7 +9399,7 @@
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>3</v>
@@ -9408,41 +9408,41 @@
         <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
         <v>2</v>
       </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>1</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
+      <c r="AA69" t="n">
         <v>3</v>
       </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>1</v>
-      </c>
       <c r="AB69" t="n">
         <v>1</v>
       </c>
@@ -9456,13 +9456,13 @@
         <v>1</v>
       </c>
       <c r="AF69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
         <v>1</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
         <v>1</v>
@@ -9481,9 +9481,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN69" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9532,7 +9532,7 @@
         <v>3</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="2" t="n">
         <v>3</v>
@@ -9541,19 +9541,19 @@
         <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="2" t="n">
         <v>1</v>
@@ -9562,20 +9562,20 @@
         <v>1</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB70" s="2" t="n">
         <v>1</v>
       </c>
@@ -9583,13 +9583,13 @@
         <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="2" t="n">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -9668,19 +9668,19 @@
         <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>1</v>
@@ -9689,20 +9689,20 @@
         <v>1</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
         <v>3</v>
       </c>
-      <c r="Y71" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>1</v>
-      </c>
       <c r="AB71" t="n">
         <v>1</v>
       </c>
@@ -9713,16 +9713,16 @@
         <v>1</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
         <v>1</v>
       </c>
       <c r="AH71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
         <v>1</v>
@@ -9741,9 +9741,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN71" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>3</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2" t="n">
         <v>3</v>
@@ -9801,41 +9801,41 @@
         <v>1</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB72" s="2" t="n">
         <v>1</v>
       </c>
@@ -9843,13 +9843,13 @@
         <v>1</v>
       </c>
       <c r="AD72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="2" t="n">
         <v>1</v>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -9928,41 +9928,41 @@
         <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA73" t="n">
         <v>3</v>
       </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>1</v>
-      </c>
       <c r="AB73" t="n">
         <v>1</v>
       </c>
@@ -9973,16 +9973,16 @@
         <v>1</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
         <v>1</v>
       </c>
       <c r="AH73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
         <v>1</v>
@@ -10001,9 +10001,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN73" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
